--- a/biology/Médecine/Roger_Dachez/Roger_Dachez.xlsx
+++ b/biology/Médecine/Roger_Dachez/Roger_Dachez.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Roger Dachez, né le 10 janvier 1955, est professeur agrégé, au sein de l'université Paris Diderot et président de l'Institut Alfred Fournier à Paris. Il est médecin, historien et franc-maçon.
 </t>
@@ -513,9 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et étude
-Parcours maçonnique
-Roger Dachez a été initié à la Grande Loge de France en 1980. Il est depuis 1985 membre de la Loge nationale française (LNF) dont il fut président du conseil national de 1992 à 1997. Il est également président de l'Institut maçonnique de France, fondé en 2002. Depuis le 21 avril 2018, il est le grand maître des Loges nationales françaises unies[1]. Roger Dachez est aussi membre du comité scientifique du Musée de la franc-maçonnerie à Paris. Parallèlement, il dirige la revue d'études maçonniques Renaissance traditionnelle[2].
+          <t>Parcours maçonnique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roger Dachez a été initié à la Grande Loge de France en 1980. Il est depuis 1985 membre de la Loge nationale française (LNF) dont il fut président du conseil national de 1992 à 1997. Il est également président de l'Institut maçonnique de France, fondé en 2002. Depuis le 21 avril 2018, il est le grand maître des Loges nationales françaises unies. Roger Dachez est aussi membre du comité scientifique du Musée de la franc-maçonnerie à Paris. Parallèlement, il dirige la revue d'études maçonniques Renaissance traditionnelle.
 </t>
         </is>
       </c>
@@ -544,7 +560,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il est l'auteur de nombreux articles de recherche sur les origines historiques et les sources traditionnelles de la franc-maçonnerie.
 Des maçons opératifs aux francs-maçons spéculatifs. Les origines de l'Ordre maçonnique, Paris, EDIMAF, coll. « L'Encyclopédie maçonnique », 2001  (ISBN 2903846871)
